--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H2">
         <v>0.182466</v>
       </c>
       <c r="I2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J2">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N2">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O2">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P2">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q2">
-        <v>4.07487176685</v>
+        <v>4.804779011291999</v>
       </c>
       <c r="R2">
-        <v>36.67384590165</v>
+        <v>43.24301110162799</v>
       </c>
       <c r="S2">
-        <v>0.0890752835176587</v>
+        <v>0.1181558294318189</v>
       </c>
       <c r="T2">
-        <v>0.0890752835176587</v>
+        <v>0.1181558294318189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H3">
         <v>0.182466</v>
       </c>
       <c r="I3">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J3">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>40.779721</v>
       </c>
       <c r="O3">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P3">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q3">
-        <v>0.8267680635540001</v>
+        <v>0.8267680635539999</v>
       </c>
       <c r="R3">
-        <v>7.440912571986001</v>
+        <v>7.440912571985999</v>
       </c>
       <c r="S3">
-        <v>0.01807286311768965</v>
+        <v>0.0203313130671318</v>
       </c>
       <c r="T3">
-        <v>0.01807286311768965</v>
+        <v>0.02033131306713179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H4">
         <v>0.182466</v>
       </c>
       <c r="I4">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J4">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N4">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O4">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P4">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q4">
-        <v>0.7317609165360001</v>
+        <v>0.6751758784259999</v>
       </c>
       <c r="R4">
-        <v>6.585848248824001</v>
+        <v>6.076582905833999</v>
       </c>
       <c r="S4">
-        <v>0.01599603983562249</v>
+        <v>0.01660346204066715</v>
       </c>
       <c r="T4">
-        <v>0.01599603983562249</v>
+        <v>0.01660346204066715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H5">
         <v>0.182466</v>
       </c>
       <c r="I5">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J5">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N5">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O5">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P5">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q5">
-        <v>0.09549029671200003</v>
+        <v>0.148426379754</v>
       </c>
       <c r="R5">
-        <v>0.8594126704080003</v>
+        <v>1.335837417786</v>
       </c>
       <c r="S5">
-        <v>0.002087384766805071</v>
+        <v>0.003649999712407212</v>
       </c>
       <c r="T5">
-        <v>0.002087384766805071</v>
+        <v>0.003649999712407211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06082200000000001</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H6">
         <v>0.182466</v>
       </c>
       <c r="I6">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="J6">
-        <v>0.1419252066466042</v>
+        <v>0.1716860072883705</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N6">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O6">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P6">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q6">
-        <v>0.7636733887019999</v>
+        <v>0.5264217694619999</v>
       </c>
       <c r="R6">
-        <v>6.873060498317999</v>
+        <v>4.737795925157999</v>
       </c>
       <c r="S6">
-        <v>0.01669363540882828</v>
+        <v>0.01294540303634545</v>
       </c>
       <c r="T6">
-        <v>0.01669363540882828</v>
+        <v>0.01294540303634545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H7">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I7">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J7">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.996675</v>
+        <v>78.99738599999999</v>
       </c>
       <c r="N7">
-        <v>200.990025</v>
+        <v>236.992158</v>
       </c>
       <c r="O7">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047822</v>
       </c>
       <c r="P7">
-        <v>0.6276213057730995</v>
+        <v>0.6882088488047821</v>
       </c>
       <c r="Q7">
-        <v>24.636530972175</v>
+        <v>23.181071945226</v>
       </c>
       <c r="R7">
-        <v>221.728778749575</v>
+        <v>208.629647507034</v>
       </c>
       <c r="S7">
-        <v>0.5385460222554408</v>
+        <v>0.5700530193729633</v>
       </c>
       <c r="T7">
-        <v>0.5385460222554408</v>
+        <v>0.5700530193729632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H8">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I8">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J8">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>40.779721</v>
       </c>
       <c r="O8">
-        <v>0.127340756055345</v>
+        <v>0.1184214915836591</v>
       </c>
       <c r="P8">
-        <v>0.127340756055345</v>
+        <v>0.118421491583659</v>
       </c>
       <c r="Q8">
-        <v>4.998610550215889</v>
+        <v>3.988814036653666</v>
       </c>
       <c r="R8">
-        <v>44.98749495194301</v>
+        <v>35.899326329883</v>
       </c>
       <c r="S8">
-        <v>0.1092678929376553</v>
+        <v>0.09809017851652728</v>
       </c>
       <c r="T8">
-        <v>0.1092678929376553</v>
+        <v>0.09809017851652725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H9">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I9">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J9">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.031188</v>
+        <v>11.10084966666667</v>
       </c>
       <c r="N9">
-        <v>36.093564</v>
+        <v>33.302549</v>
       </c>
       <c r="O9">
-        <v>0.1127075324642849</v>
+        <v>0.09670830082721493</v>
       </c>
       <c r="P9">
-        <v>0.1127075324642849</v>
+        <v>0.0967083008272149</v>
       </c>
       <c r="Q9">
-        <v>4.424200690468</v>
+        <v>3.257444427036333</v>
       </c>
       <c r="R9">
-        <v>39.817806214212</v>
+        <v>29.316999843327</v>
       </c>
       <c r="S9">
-        <v>0.09671149262866244</v>
+        <v>0.08010483878654778</v>
       </c>
       <c r="T9">
-        <v>0.09671149262866244</v>
+        <v>0.08010483878654777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H10">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I10">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J10">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.569996</v>
+        <v>2.440340333333334</v>
       </c>
       <c r="N10">
-        <v>4.709988000000001</v>
+        <v>7.321021000000001</v>
       </c>
       <c r="O10">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370978</v>
       </c>
       <c r="P10">
-        <v>0.01470763943999524</v>
+        <v>0.02125973904370977</v>
       </c>
       <c r="Q10">
-        <v>0.5773309657560002</v>
+        <v>0.7160959077536668</v>
       </c>
       <c r="R10">
-        <v>5.195978691804001</v>
+        <v>6.444863169783001</v>
       </c>
       <c r="S10">
-        <v>0.01262025467319017</v>
+        <v>0.01760973933130257</v>
       </c>
       <c r="T10">
-        <v>0.01262025467319017</v>
+        <v>0.01760973933130256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3677276666666667</v>
+        <v>0.293441</v>
       </c>
       <c r="H11">
-        <v>1.103183</v>
+        <v>0.880323</v>
       </c>
       <c r="I11">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="J11">
-        <v>0.8580747933533959</v>
+        <v>0.8283139927116295</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.55587433333333</v>
+        <v>8.655120999999999</v>
       </c>
       <c r="N11">
-        <v>37.66762299999999</v>
+        <v>25.965363</v>
       </c>
       <c r="O11">
-        <v>0.1176227662672754</v>
+        <v>0.07540161974063414</v>
       </c>
       <c r="P11">
-        <v>0.1176227662672753</v>
+        <v>0.07540161974063413</v>
       </c>
       <c r="Q11">
-        <v>4.617142371556555</v>
+        <v>2.539767361361</v>
       </c>
       <c r="R11">
-        <v>41.55428134400899</v>
+        <v>22.857906252249</v>
       </c>
       <c r="S11">
-        <v>0.1009291308584471</v>
+        <v>0.06245621670428869</v>
       </c>
       <c r="T11">
-        <v>0.1009291308584471</v>
+        <v>0.06245621670428868</v>
       </c>
     </row>
   </sheetData>
